--- a/SeleniumWebRegression/bin/data/QueryMember.xlsx
+++ b/SeleniumWebRegression/bin/data/QueryMember.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>byFlag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>checkTextByxpath</t>
+  </si>
+  <si>
+    <t>querymember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -573,7 +577,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,7 +610,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
